--- a/2_tasks/working_files/gpr_task_folder/cgt_digitSpan/digitSpanPractice.xlsx
+++ b/2_tasks/working_files/gpr_task_folder/cgt_digitSpan/digitSpanPractice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shlab/Desktop/digit-span-task-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shlab/Desktop/cgt_gamblingSpanTasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,15 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>digitSpan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>digits</t>
   </si>
   <si>
     <t>digitsReverse</t>
+  </si>
+  <si>
+    <t>digitSpanReverse</t>
+  </si>
+  <si>
+    <t>digitsReverseCorrAnswer</t>
+  </si>
+  <si>
+    <t>digitSpanForward</t>
   </si>
 </sst>
 </file>
@@ -350,26 +356,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -377,10 +387,16 @@
         <v>342</v>
       </c>
       <c r="C2">
-        <v>243</v>
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -388,7 +404,13 @@
         <v>937</v>
       </c>
       <c r="C3">
-        <v>739</v>
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
